--- a/ORG_LEVEL.xlsx
+++ b/ORG_LEVEL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD980ADD-F827-46C2-9E6B-C0457EC5BB5F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA6D431-D7EB-4C03-B02E-A9F74D3DCF61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>ORG_LEV_PK</t>
   </si>
@@ -61,7 +61,181 @@
     <t>ย่าน</t>
   </si>
   <si>
-    <t>ORG_LEV_TABLE</t>
+    <t>กอง</t>
+  </si>
+  <si>
+    <t>แผนก</t>
+  </si>
+  <si>
+    <t>ฝ่าย</t>
+  </si>
+  <si>
+    <t>พวก</t>
+  </si>
+  <si>
+    <t>ฐาน</t>
+  </si>
+  <si>
+    <t>คลัง</t>
+  </si>
+  <si>
+    <t>หมู่</t>
+  </si>
+  <si>
+    <t>หน่วย</t>
+  </si>
+  <si>
+    <t>หมวด</t>
+  </si>
+  <si>
+    <t>ภาค</t>
+  </si>
+  <si>
+    <t>ตอน</t>
+  </si>
+  <si>
+    <t>ชุด</t>
+  </si>
+  <si>
+    <t>ฝูง</t>
+  </si>
+  <si>
+    <t>โรงเรียน</t>
+  </si>
+  <si>
+    <t>โรงพยาบาล</t>
+  </si>
+  <si>
+    <t>โรงงาน</t>
+  </si>
+  <si>
+    <t>สโมสร</t>
+  </si>
+  <si>
+    <t>สาย</t>
+  </si>
+  <si>
+    <t>ส่วน</t>
+  </si>
+  <si>
+    <t>ลักษณะ</t>
+  </si>
+  <si>
+    <t>หอ</t>
+  </si>
+  <si>
+    <t>ห้อง</t>
+  </si>
+  <si>
+    <t>สนาม</t>
+  </si>
+  <si>
+    <t>วง</t>
+  </si>
+  <si>
+    <t>GOVERNMENT</t>
+  </si>
+  <si>
+    <t>DEPARMENT</t>
+  </si>
+  <si>
+    <t>FACULTY</t>
+  </si>
+  <si>
+    <t>GAOL</t>
+  </si>
+  <si>
+    <t>ORG_LEV_TABLENAME</t>
+  </si>
+  <si>
+    <t>INSTITUTE</t>
+  </si>
+  <si>
+    <t>CENTER</t>
+  </si>
+  <si>
+    <t>PILE</t>
+  </si>
+  <si>
+    <t>DIVISION</t>
+  </si>
+  <si>
+    <t>PARTY</t>
+  </si>
+  <si>
+    <t>CREW</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>TREASURY</t>
+  </si>
+  <si>
+    <t>SQUAD</t>
+  </si>
+  <si>
+    <t>UNIT</t>
+  </si>
+  <si>
+    <t>GROUP</t>
+  </si>
+  <si>
+    <t>SECTOR</t>
+  </si>
+  <si>
+    <t>EPISODE</t>
+  </si>
+  <si>
+    <t>SERIES</t>
+  </si>
+  <si>
+    <t>CROWD</t>
+  </si>
+  <si>
+    <t>UNIVERSITY</t>
+  </si>
+  <si>
+    <t>SCHOOL</t>
+  </si>
+  <si>
+    <t>ESTABLISHMENT</t>
+  </si>
+  <si>
+    <t>HOSPITAL</t>
+  </si>
+  <si>
+    <t>FACTORY</t>
+  </si>
+  <si>
+    <t>STATION</t>
+  </si>
+  <si>
+    <t>CLUB</t>
+  </si>
+  <si>
+    <t>LINE</t>
+  </si>
+  <si>
+    <t>PORTION</t>
+  </si>
+  <si>
+    <t>NATURE</t>
+  </si>
+  <si>
+    <t>TOWER</t>
+  </si>
+  <si>
+    <t>ROOM</t>
+  </si>
+  <si>
+    <t>QUARTER</t>
+  </si>
+  <si>
+    <t>FIELD</t>
+  </si>
+  <si>
+    <t>CIRCLE</t>
   </si>
 </sst>
 </file>
@@ -100,7 +274,7 @@
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -382,19 +556,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="38.08984375" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="1" max="4" width="27.5703125" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -405,10 +578,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -418,9 +591,11 @@
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D2" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -430,9 +605,11 @@
       <c r="C3" s="1">
         <v>2</v>
       </c>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D3" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -442,21 +619,25 @@
       <c r="C4" s="1">
         <v>2</v>
       </c>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D4" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
         <v>3</v>
       </c>
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D5" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -466,63 +647,415 @@
       <c r="C6" s="1">
         <v>3</v>
       </c>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D6" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D7" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C8" s="1">
         <v>3</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D8" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1">
         <v>4</v>
       </c>
-      <c r="C9" s="1">
-        <v>3</v>
-      </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D9" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+      <c r="C10" s="1">
+        <v>4</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
+      <c r="B13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="1">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="1">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="1">
+        <v>5</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="1">
+        <v>5</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="1">
+        <v>5</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="1">
+        <v>5</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="1">
+        <v>5</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="1">
+        <v>5</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C25" s="1">
+        <v>5</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26" s="1">
+        <v>6</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="1">
+        <v>6</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="1">
+        <v>6</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="1">
+        <v>6</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="1">
+        <v>6</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="1">
+        <v>6</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="1">
+        <v>6</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="1">
+        <v>6</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="1">
+        <v>6</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="1">
+        <v>6</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ORG_LEVEL.xlsx
+++ b/ORG_LEVEL.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA6D431-D7EB-4C03-B02E-A9F74D3DCF61}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B280C0-E9D8-4666-8119-37AC774AFE8E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20460" windowHeight="6945" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="9580" windowHeight="2640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -133,109 +133,109 @@
     <t>วง</t>
   </si>
   <si>
-    <t>GOVERNMENT</t>
-  </si>
-  <si>
-    <t>DEPARMENT</t>
-  </si>
-  <si>
-    <t>FACULTY</t>
-  </si>
-  <si>
-    <t>GAOL</t>
-  </si>
-  <si>
     <t>ORG_LEV_TABLENAME</t>
   </si>
   <si>
-    <t>INSTITUTE</t>
-  </si>
-  <si>
-    <t>CENTER</t>
-  </si>
-  <si>
-    <t>PILE</t>
-  </si>
-  <si>
-    <t>DIVISION</t>
-  </si>
-  <si>
-    <t>PARTY</t>
-  </si>
-  <si>
-    <t>CREW</t>
-  </si>
-  <si>
-    <t>BASE</t>
-  </si>
-  <si>
-    <t>TREASURY</t>
-  </si>
-  <si>
-    <t>SQUAD</t>
-  </si>
-  <si>
-    <t>UNIT</t>
-  </si>
-  <si>
-    <t>GROUP</t>
-  </si>
-  <si>
-    <t>SECTOR</t>
-  </si>
-  <si>
-    <t>EPISODE</t>
-  </si>
-  <si>
-    <t>SERIES</t>
-  </si>
-  <si>
-    <t>CROWD</t>
-  </si>
-  <si>
-    <t>UNIVERSITY</t>
-  </si>
-  <si>
-    <t>SCHOOL</t>
-  </si>
-  <si>
-    <t>ESTABLISHMENT</t>
-  </si>
-  <si>
-    <t>HOSPITAL</t>
-  </si>
-  <si>
-    <t>FACTORY</t>
-  </si>
-  <si>
-    <t>STATION</t>
-  </si>
-  <si>
-    <t>CLUB</t>
-  </si>
-  <si>
-    <t>LINE</t>
-  </si>
-  <si>
-    <t>PORTION</t>
-  </si>
-  <si>
-    <t>NATURE</t>
-  </si>
-  <si>
-    <t>TOWER</t>
-  </si>
-  <si>
-    <t>ROOM</t>
-  </si>
-  <si>
-    <t>QUARTER</t>
-  </si>
-  <si>
-    <t>FIELD</t>
-  </si>
-  <si>
-    <t>CIRCLE</t>
+    <t>ORG_GOVERNMENT</t>
+  </si>
+  <si>
+    <t>ORG_DEPARMENT</t>
+  </si>
+  <si>
+    <t>ORG_FACULTY</t>
+  </si>
+  <si>
+    <t>ORG_GAOL</t>
+  </si>
+  <si>
+    <t>ORG_INSTITUTE</t>
+  </si>
+  <si>
+    <t>ORG_CENTER</t>
+  </si>
+  <si>
+    <t>ORG_PILE</t>
+  </si>
+  <si>
+    <t>ORG_DIVISION</t>
+  </si>
+  <si>
+    <t>ORG_PARTY</t>
+  </si>
+  <si>
+    <t>ORG_CREW</t>
+  </si>
+  <si>
+    <t>ORG_BASE</t>
+  </si>
+  <si>
+    <t>ORG_TREASURY</t>
+  </si>
+  <si>
+    <t>ORG_SQUAD</t>
+  </si>
+  <si>
+    <t>ORG_UNIT</t>
+  </si>
+  <si>
+    <t>ORG_GROUP</t>
+  </si>
+  <si>
+    <t>ORG_SECTOR</t>
+  </si>
+  <si>
+    <t>ORG_EPISODE</t>
+  </si>
+  <si>
+    <t>ORG_SERIES</t>
+  </si>
+  <si>
+    <t>ORG_CROWD</t>
+  </si>
+  <si>
+    <t>ORG_UNIVERSITY</t>
+  </si>
+  <si>
+    <t>ORG_SCHOOL</t>
+  </si>
+  <si>
+    <t>ORG_ESTABLISHMENT</t>
+  </si>
+  <si>
+    <t>ORG_HOSPITAL</t>
+  </si>
+  <si>
+    <t>ORG_FACTORY</t>
+  </si>
+  <si>
+    <t>ORG_STATION</t>
+  </si>
+  <si>
+    <t>ORG_CLUB</t>
+  </si>
+  <si>
+    <t>ORG_LINE</t>
+  </si>
+  <si>
+    <t>ORG_PORTION</t>
+  </si>
+  <si>
+    <t>ORG_NATURE</t>
+  </si>
+  <si>
+    <t>ORG_TOWER</t>
+  </si>
+  <si>
+    <t>ORG_ROOM</t>
+  </si>
+  <si>
+    <t>ORG_QUARTER</t>
+  </si>
+  <si>
+    <t>ORG_FIELD</t>
+  </si>
+  <si>
+    <t>ORG_CIRCLE</t>
   </si>
 </sst>
 </file>
@@ -559,15 +559,15 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="4" width="27.5703125" style="1" customWidth="1"/>
+    <col min="1" max="4" width="27.54296875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,10 +578,10 @@
         <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -592,10 +592,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -606,10 +606,10 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -620,10 +620,10 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -634,10 +634,10 @@
         <v>3</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -651,7 +651,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -665,7 +665,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -679,7 +679,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -693,7 +693,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -707,7 +707,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -721,7 +721,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -735,7 +735,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -749,7 +749,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -763,7 +763,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -777,7 +777,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -791,7 +791,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -805,7 +805,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -819,7 +819,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -833,7 +833,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -847,7 +847,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -861,7 +861,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -875,7 +875,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -889,7 +889,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -903,7 +903,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -917,7 +917,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -931,7 +931,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -945,7 +945,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -959,7 +959,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -973,7 +973,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -987,7 +987,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1001,7 +1001,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1015,7 +1015,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1029,7 +1029,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="1">
         <v>33</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="1">
         <v>34</v>
       </c>
